--- a/Testes/Dataset4/Torneio/statistic_average_fitness.xlsx
+++ b/Testes/Dataset4/Torneio/statistic_average_fitness.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrui2\IdeaProjects\StockingProblemProjectV4\Testes\Dataset4\Torneio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1 - IPLeiria\2ºAno\2ºSemestre\Inteligência Artificial\Prática\Intellij Projects\StockingProblemProjectV4\Testes\Dataset4\Torneio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F90BEA9E-E079-4969-8EFC-89B9B7CD7ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1833B976-88AB-472D-B5B8-3F2C67958664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759"/>
+    <workbookView xWindow="3915" yWindow="2655" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statistic_average_fitness" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -582,48 +582,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Cor1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Cor2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Cor3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Cor4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Cor5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Cor6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Cor1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Cor2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Cor3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Cor4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Cor5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Cor6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Cor1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Cor2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Cor3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Cor4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Cor5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Cor6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula Ligada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Cor1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Cor2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Cor3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Cor4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Cor5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Cor6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Correto" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Verificar Célula" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -641,7 +641,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -672,9 +672,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Dataset4 - População</a:t>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Dataset</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> 4 - Torneio</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -703,7 +708,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -754,7 +759,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pt-PT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -786,46 +791,27 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>statistic_average_fitness!$A$2:$B$6</c:f>
-              <c:multiLvlStrCache>
+            <c:strRef>
+              <c:f>statistic_average_fitness!$C$2:$C$6</c:f>
+              <c:strCache>
                 <c:ptCount val="5"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Geração 375</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Geração 375</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Geração 375</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Geração 375</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Geração 375</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>População 200</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>População 200</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>População 200</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>População 200</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>População 200</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+                <c:pt idx="0">
+                  <c:v>Tournament(2)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tournament(4)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tournament(6)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Tournament(8)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tournament(10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -853,7 +839,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8E82-46B2-A77A-7D692390E0FD}"/>
+              <c16:uniqueId val="{00000000-7F34-4337-999F-66287DC30147}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -868,11 +854,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="425012568"/>
-        <c:axId val="425013552"/>
+        <c:axId val="834400816"/>
+        <c:axId val="812070720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="425012568"/>
+        <c:axId val="834400816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -898,8 +884,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Tamanho da População</a:t>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Tamanho do torneio</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -929,7 +915,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -967,10 +953,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425013552"/>
+        <c:crossAx val="812070720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -978,7 +964,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="425013552"/>
+        <c:axId val="812070720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1018,7 +1004,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="pt-PT"/>
                   <a:t>Average Fitness</a:t>
                 </a:r>
               </a:p>
@@ -1049,7 +1035,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1081,10 +1067,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425012568"/>
+        <c:crossAx val="834400816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1129,7 +1115,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1687,23 +1673,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>33251</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>157941</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>482138</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>33250</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18E96E90-A7FA-4179-B274-8F43C4BC6AB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F9DCBF1-829A-4BDC-BC06-73890EA02C02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1725,7 +1711,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2020,21 +2006,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2063,7 +2049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2092,7 +2078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -2121,7 +2107,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -2150,7 +2136,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -2179,7 +2165,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
